--- a/funds/stocks/万华化学&财务报表同型分析.xlsx
+++ b/funds/stocks/万华化学&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495"/>
+    <workbookView windowWidth="20603" windowHeight="8495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="210">
   <si>
     <t>项目</t>
   </si>
@@ -381,22 +381,34 @@
     <t>自由现金流均值(FCF)</t>
   </si>
   <si>
+    <t>EBIT</t>
+  </si>
+  <si>
     <t>营业外支出</t>
   </si>
   <si>
     <t>折现率(r)</t>
   </si>
   <si>
+    <t>经营杠杆</t>
+  </si>
+  <si>
     <t>持续经营净利润</t>
   </si>
   <si>
     <t>永续年金增长率(g)</t>
   </si>
   <si>
+    <t>财务杠杆</t>
+  </si>
+  <si>
     <t>毛利</t>
   </si>
   <si>
     <t>自由现金流增长率(G)</t>
+  </si>
+  <si>
+    <t>总杠杆</t>
   </si>
   <si>
     <t>毛利率</t>
@@ -644,12 +656,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
@@ -720,74 +732,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,17 +747,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,8 +783,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -841,6 +807,59 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -848,16 +867,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,13 +914,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,19 +944,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +1004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +1034,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,109 +1082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,11 +1160,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,6 +1234,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1186,65 +1257,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1253,145 +1265,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1438,7 +1450,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1477,7 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1495,7 +1507,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1528,6 +1540,9 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1570,10 +1585,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
@@ -1900,7 +1912,7 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -1978,13 +1990,13 @@
       <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="54">
         <v>200.34</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="54">
         <v>188.69</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="54">
         <v>127.15</v>
       </c>
     </row>
@@ -2006,13 +2018,13 @@
       <c r="I5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="54">
         <v>83.86</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="54">
         <v>41.47</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="54">
         <v>18.52</v>
       </c>
     </row>
@@ -2034,13 +2046,13 @@
       <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="54">
         <v>80.24</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="54">
         <v>46.62</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="54">
         <v>43.88</v>
       </c>
     </row>
@@ -2062,10 +2074,10 @@
       <c r="I7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="58">
-        <v>0</v>
-      </c>
-      <c r="K7" s="58">
+      <c r="J7" s="54">
+        <v>0</v>
+      </c>
+      <c r="K7" s="54">
         <v>0</v>
       </c>
       <c r="L7" s="59">
@@ -2090,13 +2102,13 @@
       <c r="I8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="54">
         <v>8.02</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="54">
         <v>9.3</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="54">
         <v>7.3</v>
       </c>
     </row>
@@ -2118,13 +2130,13 @@
       <c r="I9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="54">
         <v>4.94</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="54">
         <v>16.11</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="54">
         <v>22.45</v>
       </c>
     </row>
@@ -2133,15 +2145,15 @@
       <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="57">
         <f>D4/D9</f>
         <v>0.19443025038324</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="57">
         <f>E4/E9</f>
         <v>0.234001230052115</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="57">
         <f>F4/F9</f>
         <v>0.121547619047619</v>
       </c>
@@ -2149,13 +2161,13 @@
       <c r="I10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="58">
-        <v>0</v>
-      </c>
-      <c r="K10" s="58">
+      <c r="J10" s="54">
+        <v>0</v>
+      </c>
+      <c r="K10" s="54">
         <v>14.25</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="54">
         <v>5.08</v>
       </c>
     </row>
@@ -2164,15 +2176,15 @@
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="57">
         <f>D5/D9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="57">
         <f>E5/E9</f>
         <v>0.308775450749361</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="57">
         <f>F5/F9</f>
         <v>0.448730158730159</v>
       </c>
@@ -2180,10 +2192,10 @@
       <c r="I11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="54">
         <v>448</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="54">
         <v>398.95</v>
       </c>
       <c r="L11" s="59">
@@ -2195,15 +2207,15 @@
       <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="57">
         <f>D6/D9</f>
         <v>0.188766819962528</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="57">
         <f>E6/E9</f>
         <v>0.124720810539604</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="57">
         <f>F6/F9</f>
         <v>0.112420634920635</v>
       </c>
@@ -2229,15 +2241,15 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="57">
         <f>D7/D9</f>
         <v>0.0186509964230966</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="57">
         <f>E7/E9</f>
         <v>0.0140808597416891</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="57">
         <f>F7/F9</f>
         <v>0.0191269841269841</v>
       </c>
@@ -2263,15 +2275,15 @@
       <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="57">
         <f>D8/D9</f>
         <v>0.365653210696645</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="57">
         <f>E8/E9</f>
         <v>0.289385945036092</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="57">
         <f>F8/F9</f>
         <v>0.277777777777778</v>
       </c>
@@ -2299,13 +2311,13 @@
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="58">
         <v>7.18</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="58">
         <v>7.08</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="58">
         <v>5.26</v>
       </c>
       <c r="H15" s="23"/>
@@ -2330,13 +2342,13 @@
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="54">
         <v>1.75</v>
       </c>
-      <c r="E16" s="58">
-        <v>0</v>
-      </c>
-      <c r="F16" s="58">
+      <c r="E16" s="54">
+        <v>0</v>
+      </c>
+      <c r="F16" s="54">
         <v>0</v>
       </c>
       <c r="H16" s="23"/>
@@ -2361,13 +2373,13 @@
       <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="54">
         <v>374.78</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="54">
         <v>356.44</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="54">
         <v>276.1</v>
       </c>
       <c r="H17" s="23"/>
@@ -2392,13 +2404,13 @@
       <c r="C18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="58">
-        <v>0</v>
-      </c>
-      <c r="E18" s="58">
+      <c r="D18" s="54">
+        <v>0</v>
+      </c>
+      <c r="E18" s="54">
         <v>109.93</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="54">
         <v>64.2</v>
       </c>
       <c r="H18" s="23"/>
@@ -2423,13 +2435,13 @@
       <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="54">
         <v>0.486328</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="54">
         <v>0.554441</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="54">
         <v>0.154735</v>
       </c>
       <c r="H19" s="23" t="s">
@@ -2438,13 +2450,13 @@
       <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="54">
         <v>59.63</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="54">
         <v>57.24</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="54">
         <v>63.22</v>
       </c>
     </row>
@@ -2453,26 +2465,26 @@
       <c r="C20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="54">
         <v>53.37</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="54">
         <v>33.14</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="54">
         <v>25.21</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="54">
         <v>5.91</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="54">
         <v>4.88</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="54">
         <v>0.013527</v>
       </c>
     </row>
@@ -2481,26 +2493,26 @@
       <c r="C21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="58">
-        <v>0</v>
-      </c>
-      <c r="E21" s="58">
-        <v>0</v>
-      </c>
-      <c r="F21" s="58">
+      <c r="D21" s="54">
+        <v>0</v>
+      </c>
+      <c r="E21" s="54">
+        <v>0</v>
+      </c>
+      <c r="F21" s="54">
         <v>0</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="54">
         <v>3.99</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="54">
         <v>1.22</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="54">
         <v>0.14901</v>
       </c>
     </row>
@@ -2509,26 +2521,26 @@
       <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="54">
         <v>13.58</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="54">
         <v>13.5</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="54">
         <v>2.78</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="54">
         <v>9.07</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="54">
         <v>9.34</v>
       </c>
-      <c r="L22" s="53">
+      <c r="L22" s="54">
         <v>9.16</v>
       </c>
     </row>
@@ -2537,26 +2549,26 @@
       <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="58">
         <v>29.8</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="58">
         <v>23.33</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="58">
         <v>10.8</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="58">
-        <v>0</v>
-      </c>
-      <c r="K23" s="58">
-        <v>0</v>
-      </c>
-      <c r="L23" s="58">
+      <c r="J23" s="54">
+        <v>0</v>
+      </c>
+      <c r="K23" s="54">
+        <v>0</v>
+      </c>
+      <c r="L23" s="54">
         <v>0</v>
       </c>
     </row>
@@ -2578,13 +2590,13 @@
       <c r="I24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="54">
         <v>81.34</v>
       </c>
-      <c r="K24" s="58">
+      <c r="K24" s="54">
         <v>75.86</v>
       </c>
-      <c r="L24" s="58">
+      <c r="L24" s="54">
         <v>72.54</v>
       </c>
     </row>
@@ -2593,15 +2605,15 @@
       <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="57">
         <f>D15/D24</f>
         <v>0.0097844157967894</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="57">
         <f>E15/E24</f>
         <v>0.0126045931992167</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="57">
         <f>F15/F24</f>
         <v>0.012946736241016</v>
       </c>
@@ -2609,15 +2621,15 @@
       <c r="I25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="57">
         <f t="shared" ref="J25:L25" si="7">J4/J11</f>
         <v>0.4471875</v>
       </c>
-      <c r="K25" s="56">
+      <c r="K25" s="57">
         <f t="shared" si="7"/>
         <v>0.472966537160045</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="57">
         <f t="shared" si="7"/>
         <v>0.457045291157441</v>
       </c>
@@ -2627,15 +2639,15 @@
       <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="57">
         <f>D16/D24</f>
         <v>0.00238478100896678</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="57">
         <f>E16/E24</f>
         <v>0</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="57">
         <f>F16/F24</f>
         <v>0</v>
       </c>
@@ -2643,15 +2655,15 @@
       <c r="I26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="56">
+      <c r="J26" s="57">
         <f t="shared" ref="J26:L26" si="8">J19/J24</f>
         <v>0.733095647897713</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K26" s="57">
         <f t="shared" si="8"/>
         <v>0.754547851305036</v>
       </c>
-      <c r="L26" s="56">
+      <c r="L26" s="57">
         <f t="shared" si="8"/>
         <v>0.871519161841742</v>
       </c>
@@ -2661,15 +2673,15 @@
       <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="57">
         <f>D17/D24</f>
         <v>0.510724700880325</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="57">
         <f>E17/E24</f>
         <v>0.634573615809151</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="57">
         <f>F17/F24</f>
         <v>0.679580584818352</v>
       </c>
@@ -2677,15 +2689,15 @@
       <c r="I27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="57">
         <f t="shared" ref="J27:L27" si="9">J20/J24</f>
         <v>0.0726579788541923</v>
       </c>
-      <c r="K27" s="56">
+      <c r="K27" s="57">
         <f t="shared" si="9"/>
         <v>0.0643290271552861</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L27" s="57">
         <f t="shared" si="9"/>
         <v>0.000186476426799007</v>
       </c>
@@ -2695,15 +2707,15 @@
       <c r="C28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="57">
         <f>D18/D24</f>
         <v>0</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="57">
         <f>E18/E24</f>
         <v>0.195709453444899</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="57">
         <f>F18/F24</f>
         <v>0.158019100127991</v>
       </c>
@@ -2711,15 +2723,15 @@
       <c r="I28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J28" s="57">
         <f t="shared" ref="J28:L28" si="10">J21/J24</f>
         <v>0.0490533562822719</v>
       </c>
-      <c r="K28" s="56">
+      <c r="K28" s="57">
         <f t="shared" si="10"/>
         <v>0.0160822567888215</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="57">
         <f t="shared" si="10"/>
         <v>0.00205417700578991</v>
       </c>
@@ -2729,15 +2741,15 @@
       <c r="C29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="57">
         <f>D19/D24</f>
         <v>0.000662734730587883</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="57">
         <f>E19/E24</f>
         <v>0.000987076731351255</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="57">
         <f>F19/F24</f>
         <v>0.000380858028945555</v>
       </c>
@@ -2745,15 +2757,15 @@
       <c r="I29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J29" s="57">
         <f t="shared" ref="J29:L29" si="11">J22/J24</f>
         <v>0.111507253503811</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K29" s="57">
         <f t="shared" si="11"/>
         <v>0.123121539678355</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L29" s="57">
         <f t="shared" si="11"/>
         <v>0.126275158533223</v>
       </c>
@@ -2763,15 +2775,15 @@
       <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="57">
         <f>D20/D24</f>
         <v>0.0727290071134611</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="57">
         <f>E20/E24</f>
         <v>0.0589994659070678</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="57">
         <f>F20/F24</f>
         <v>0.0620508024022841</v>
       </c>
@@ -2779,15 +2791,15 @@
       <c r="I30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="56">
+      <c r="J30" s="57">
         <f t="shared" ref="J30:L30" si="12">J23/J24</f>
         <v>0</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="56">
+      <c r="L30" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -2797,15 +2809,15 @@
       <c r="C31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="57">
         <f>D21/D24</f>
         <v>0</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="57">
         <f>E21/E24</f>
         <v>0</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="57">
         <f>F21/F24</f>
         <v>0</v>
       </c>
@@ -2815,15 +2827,15 @@
       <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="57">
         <f>D22/D24</f>
         <v>0.0185059006295822</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="57">
         <f>E22/E24</f>
         <v>0.0240341819476589</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="57">
         <f>F22/F24</f>
         <v>0.00684257162547996</v>
       </c>
@@ -2833,15 +2845,15 @@
       <c r="C33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="57">
         <f t="shared" ref="D33:F33" si="13">D23/D24</f>
         <v>0.0406094137526914</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="57">
         <f t="shared" si="13"/>
         <v>0.0415346270251024</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="57">
         <f t="shared" si="13"/>
         <v>0.0265826523579797</v>
       </c>
@@ -3123,7 +3135,7 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="48" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -3139,21 +3151,21 @@
         <v>0</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="54">
         <v>9.07</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="54">
         <v>9.34</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="54">
         <v>9.16</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="48"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -3183,7 +3195,7 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
@@ -3211,7 +3223,7 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="12" t="s">
         <v>71</v>
       </c>
@@ -3239,7 +3251,7 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="12" t="s">
         <v>73</v>
       </c>
@@ -3267,7 +3279,7 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
@@ -3295,7 +3307,7 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="12" t="s">
         <v>77</v>
       </c>
@@ -3323,7 +3335,7 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="12" t="s">
         <v>78</v>
       </c>
@@ -3351,7 +3363,7 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
@@ -3379,7 +3391,7 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -3392,7 +3404,7 @@
       <c r="F20" s="12">
         <v>10.8</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="13" t="s">
         <v>81</v>
       </c>
@@ -3407,7 +3419,7 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
@@ -3423,18 +3435,18 @@
       <c r="H21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="55">
         <f t="shared" ref="J21:L21" si="0">SUM(J4:J11)/J20</f>
         <v>0.403275777383156</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="55">
         <f t="shared" si="0"/>
         <v>0.321117920852552</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="55">
         <f t="shared" si="0"/>
         <v>0.365681159833495</v>
       </c>
@@ -3443,52 +3455,52 @@
       <c r="B22" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="53">
         <f>SUM(D4:D10)/D21</f>
         <v>0.628080317968306</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="53">
         <f>SUM(E4:E10)/E21</f>
         <v>0.792001194537289</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="53">
         <f>SUM(F4:F10)/F21</f>
         <v>0.832730752871119</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="55">
         <f t="shared" ref="J22:L22" si="1">SUM(J12:J19)/J20</f>
         <v>0.566904356368308</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="55">
         <f t="shared" si="1"/>
         <v>0.64187780375308</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="55">
         <f t="shared" si="1"/>
         <v>0.619870086103667</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="23"/>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="53">
         <f>SUM(D11:D20)/D21</f>
         <v>0.0516691911423115</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="53">
         <f>SUM(E11:E20)/E21</f>
         <v>0.0515958420913591</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="53">
         <f>SUM(F11:F20)/F21</f>
         <v>0.0448137570638634</v>
       </c>
@@ -3496,15 +3508,15 @@
       <c r="I23" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="56">
         <f t="shared" ref="J23:L23" si="2">SUM(J4:J11)/D21</f>
         <v>0.220378877819646</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="56">
         <f t="shared" si="2"/>
         <v>0.175126058141805</v>
       </c>
-      <c r="L23" s="55">
+      <c r="L23" s="56">
         <f t="shared" si="2"/>
         <v>0.19483959713192</v>
       </c>
@@ -3514,15 +3526,15 @@
       <c r="I24" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="56">
         <f t="shared" ref="J24:L24" si="3">SUM(J12:J19)/D21</f>
         <v>0.309797297269396</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="56">
         <f t="shared" si="3"/>
         <v>0.350056855380586</v>
       </c>
-      <c r="L24" s="55">
+      <c r="L24" s="56">
         <f t="shared" si="3"/>
         <v>0.330274706811691</v>
       </c>
@@ -3548,8 +3560,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3928,7 +3940,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:12">
       <c r="B16" s="22" t="s">
         <v>117</v>
       </c>
@@ -3952,11 +3964,17 @@
         <v>83.404</v>
       </c>
       <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="K16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="44">
+        <f>C18+C10+C6</f>
+        <v>108.12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="22">
         <v>1.15</v>
@@ -3969,17 +3987,23 @@
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="44">
+        <v>122</v>
+      </c>
+      <c r="I17" s="45">
         <v>0.08</v>
       </c>
       <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="K17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="44">
+        <f>(L16+C7+C8+C9)/L16</f>
+        <v>1.54772475027747</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C18" s="22">
         <v>91.56</v>
@@ -3992,17 +4016,23 @@
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="44">
+        <v>125</v>
+      </c>
+      <c r="I18" s="45">
         <v>0.03</v>
       </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="K18" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="44">
+        <f>L16/(L16-C10)</f>
+        <v>1.11097410604192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" s="32">
         <f>C4-C5</f>
@@ -4018,17 +4048,23 @@
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="44">
+        <v>128</v>
+      </c>
+      <c r="I19" s="45">
         <v>0.1</v>
       </c>
       <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="K19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="44">
+        <f>L17*L18</f>
+        <v>1.71948212083847</v>
+      </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C20" s="33">
         <f>C19/C4</f>
@@ -4044,9 +4080,9 @@
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="45">
+        <v>131</v>
+      </c>
+      <c r="I20" s="46">
         <v>60.83</v>
       </c>
       <c r="J20" s="28"/>
@@ -4054,7 +4090,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C21" s="34">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -4070,7 +4106,7 @@
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="30" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I21" s="30">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
@@ -4081,7 +4117,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C22" s="35">
         <f>C21/C4</f>
@@ -4097,7 +4133,7 @@
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I22" s="30">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -4108,7 +4144,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C23" s="37">
         <f>C21/I4</f>
@@ -4124,7 +4160,7 @@
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I23" s="30">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -4135,7 +4171,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C24" s="38">
         <f>C7/C4</f>
@@ -4151,7 +4187,7 @@
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I24" s="30">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -4162,7 +4198,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C25" s="38">
         <f>C8/C4</f>
@@ -4178,7 +4214,7 @@
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I25" s="30">
         <f>SUM(I21:I24)</f>
@@ -4189,7 +4225,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C26" s="38">
         <f>C16/C4</f>
@@ -4205,7 +4241,7 @@
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
@@ -4214,7 +4250,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C27" s="38">
         <f>C18/C4</f>
@@ -4231,12 +4267,12 @@
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="40" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="46">
+        <v>146</v>
+      </c>
+      <c r="I28" s="47">
         <v>0.1</v>
       </c>
       <c r="J28" s="22"/>
@@ -4244,9 +4280,9 @@
     <row r="29" spans="7:10">
       <c r="G29" s="41"/>
       <c r="H29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="46">
+        <v>147</v>
+      </c>
+      <c r="I29" s="47">
         <v>0.04</v>
       </c>
       <c r="J29" s="13">
@@ -4257,9 +4293,9 @@
     <row r="30" spans="7:10">
       <c r="G30" s="41"/>
       <c r="H30" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="46">
+        <v>148</v>
+      </c>
+      <c r="I30" s="47">
         <v>0.02</v>
       </c>
       <c r="J30" s="13">
@@ -4270,7 +4306,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="41"/>
       <c r="H31" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I31" s="13">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -4284,7 +4320,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="41"/>
       <c r="H32" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I32" s="13">
         <f>I31*0.7</f>
@@ -4298,7 +4334,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="42"/>
       <c r="H33" s="13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I33" s="13">
         <f>(C18*POWER(1+I28,3))*J30</f>
@@ -4361,15 +4397,15 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -4526,13 +4562,13 @@
     <row r="10" spans="2:10">
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -4540,7 +4576,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D11" s="12">
         <v>12.74</v>
@@ -4552,7 +4588,7 @@
         <v>10.36</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I11" s="12">
         <f>D11</f>
@@ -4565,7 +4601,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D12" s="12">
         <f>'利润&amp;现金流结构分析'!C21</f>
@@ -4580,7 +4616,7 @@
         <v>162.35</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I12" s="12">
         <f>D12</f>
@@ -4621,7 +4657,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D14" s="13">
         <v>1.2901867163</v>
@@ -4633,7 +4669,7 @@
         <v>0.597041</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I14" s="13">
         <v>1.2901867163</v>
@@ -4673,7 +4709,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D16" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D21</f>
@@ -4688,7 +4724,7 @@
         <v>658.28</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I16" s="13">
         <f>D16</f>
@@ -4700,149 +4736,149 @@
     </row>
     <row r="22" ht="16.05" spans="3:4">
       <c r="C22" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" ht="16.05" spans="2:8">
       <c r="B24" s="17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" ht="16.05" spans="2:8">
       <c r="B25" s="19"/>
       <c r="C25" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" ht="16.05" spans="2:8">
       <c r="B26" s="19"/>
       <c r="C26" s="15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" ht="16.05" spans="2:8">
       <c r="B27" s="19"/>
       <c r="C27" s="15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" ht="16.05" spans="2:8">
       <c r="B28" s="19"/>
       <c r="C28" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" ht="16.05" spans="2:8">
       <c r="B29" s="19"/>
       <c r="C29" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" ht="16.05" spans="2:8">
       <c r="B30" s="19"/>
       <c r="C30" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" ht="16.05" spans="2:4">
       <c r="B31" s="19"/>
       <c r="C31" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" ht="16.05" spans="2:4">
       <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" ht="16.05" spans="2:4">
       <c r="B33" s="20"/>
       <c r="C33" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4877,29 +4913,29 @@
   <sheetData>
     <row r="2" ht="18.25" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" ht="18.25" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>62</v>
@@ -4907,10 +4943,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="18.25" spans="2:8">
@@ -4922,34 +4958,34 @@
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" ht="18.25" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4958,10 +4994,10 @@
     </row>
     <row r="7" ht="18.25" spans="7:8">
       <c r="G7" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
